--- a/Efforts_Logbook_Blair.xlsx
+++ b/Efforts_Logbook_Blair.xlsx
@@ -484,21 +484,21 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0148148148148"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0259259259259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.4111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8111111111111"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.9074074074074"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7111111111111"/>
-    <col collapsed="false" hidden="false" max="26" min="9" style="0" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.4666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.3074074074074"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.7111111111111"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.4888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.4"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.6888888888889"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.4"/>
+    <col collapsed="false" hidden="false" max="26" min="9" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.7592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -561,7 +561,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>13</v>
@@ -755,13 +755,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.91851851851852"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.8333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.52592592592593"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.42592592592593"/>
-    <col collapsed="false" hidden="false" max="26" min="6" style="0" width="10.7777777777778"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.4666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.11481481481482"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2259259259259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.62222222222222"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.52592592592593"/>
+    <col collapsed="false" hidden="false" max="26" min="6" style="0" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.7592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="33.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
